--- a/src/main/java/com/mps/utility/DiwaliPriceList.xlsx
+++ b/src/main/java/com/mps/utility/DiwaliPriceList.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0" windowHeight="9225" windowWidth="14940" xWindow="240" yWindow="120"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="153">
   <si>
     <t>Item Details</t>
   </si>
@@ -27,17 +30,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>21314/</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> FP 263D PROTON ROY COOL ILLUSIA N</t>
     </r>
@@ -45,17 +50,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>21347</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ NEO 278GD PRM CRYSTAL BLACK 2S</t>
     </r>
@@ -63,17 +70,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>21445</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ FP 263D PROTTON ROY WINE STREAM</t>
     </r>
@@ -81,17 +90,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>21546</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ NEO 258LH CLS PLUS SAPPH VIOLA 2S</t>
     </r>
@@ -99,17 +110,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>21547</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ NEO 258LH CLS PLUS WINE VIOLA 2S</t>
     </r>
@@ -117,17 +130,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>71866</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 230 IMPRO ROY 4S INV WINE FLUME</t>
     </r>
@@ -135,17 +150,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>71867</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 230 IMPRO ROY 4S INV SAPHIRE FLUM</t>
     </r>
@@ -153,17 +170,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>71902</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 230 IMPRO ROY 5S INV WINE FLUME</t>
     </r>
@@ -171,17 +190,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>71997</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC PRM 3S WINE FLOWER RAIN</t>
     </r>
@@ -189,17 +210,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>71998</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC PRM 3S SAPH FLOWER RAIN</t>
     </r>
@@ -207,17 +230,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>71999</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC ROY 3S WINE FLOWER RAIN</t>
     </r>
@@ -225,17 +250,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72000</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC ROY 3S SAPH FLOWER RAIN</t>
     </r>
@@ -243,17 +270,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72018</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPRO PRM 4S INV WINE ANTELIA</t>
     </r>
@@ -261,17 +290,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72019</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPRO PRM 4S INV SAPHIRE ANTE</t>
     </r>
@@ -279,17 +310,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72021</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPRO ROY 4S INV WINE ANTELIA</t>
     </r>
@@ -297,17 +330,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72151</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 205 IMPC PRM 2S WINE LINNEA</t>
     </r>
@@ -315,17 +350,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72152</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 205 IMPC PRM 2S SAPHIRE LINNEA</t>
     </r>
@@ -333,17 +370,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72154</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 205 IMPC ROY 2S WINE LINNEA</t>
     </r>
@@ -351,17 +390,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72155</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 205 IMPC ROY 2S SAPPHIRE LINNEA</t>
     </r>
@@ -369,17 +410,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72258</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 200 IMPC PRM 1S SAPPHIRE LINNEA</t>
     </r>
@@ -387,17 +430,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72259</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 200 IMPC PRM 1S WINE LINNEA</t>
     </r>
@@ -405,17 +450,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72276</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 200 GENIUS CLS 1S SAPHIRE LINNEA</t>
     </r>
@@ -423,17 +470,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72277</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 200 GENIUS CLS PLUS 1S WINE LINEA</t>
     </r>
@@ -441,17 +490,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72281</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 200 GENIUS CLS PLUS 1S SAPH ADORA</t>
     </r>
@@ -459,17 +510,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72356</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC PRM 2S SAPH FLOWER RAIN</t>
     </r>
@@ -477,17 +530,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72358</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC ROY 2S SAPH FLOWER RAIN</t>
     </r>
@@ -495,17 +550,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72454</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC PRM 2S WINE MULIA</t>
     </r>
@@ -513,17 +570,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72456</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC PRM 2S PURPLE MULIA</t>
     </r>
@@ -531,17 +590,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72459</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 215 IMPC ROY 2S PURPLE MULIA</t>
     </r>
@@ -549,17 +610,19 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>72797</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Calibri, Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri, Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/ 205 IMPC PRM 1S WINE HIBISCUS</t>
     </r>
@@ -795,367 +858,484 @@
   <si>
     <r>
       <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FHT1265ANL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>FHT1265ANL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P6510NBAY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>P6510NBAY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P7010NBAZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>P7010NBAZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P7010RRAZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>P7010RRAZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P7515SRAZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>P7515SRAZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P8035SRAZ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>P8035SRAZ</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T70SPSF1ZA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>T70SPSF1ZA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T7288NDDLA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>T7288NDDLA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T75SPSF1Z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>T75SPSF1Z</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>T80SPSF2Z</t>
+    </r>
+  </si>
+  <si>
+    <t>P1155SKAZ</t>
+  </si>
+  <si>
+    <t>30200/  SUPERB ATOM 651 - COREL RED</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="14.0"/>
-      </rPr>
-      <t>T80SPSF2Z</t>
-    </r>
-  </si>
-  <si>
-    <t>P1155SKAZ</t>
-  </si>
-  <si>
-    <t>30200/  SUPERB ATOM 651 - COREL RED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">30240/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">30240/ </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACE 7.0 SUPREME PLUS CORAL RED</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>ACE 7.0 SUPREME PLUS CORAL RED</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30257/ ACE 9.0 TRB DRY SILVER DAZZLE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>30257/ ACE 9.0 TRB DRY SILVER DAZZLE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30271/ ACE 7.0 SUPREME PRO WINE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>30271/ ACE 7.0 SUPREME PRO WINE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30272/ ACE 7.5 SUPREME PRO WINE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>30272/ ACE 7.5 SUPREME PRO WINE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>30275/ ACE 8.0 SUPER SOAK CORAL RED</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>30275/ ACE 8.0 SUPER SOAK CORAL RED</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31312/ WHITEMAGIC ELITE 7.0 GREY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>31312/ WHITEMAGIC ELITE 7.0 GREY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31357/ SW ULTRA H 7.5 (SC) GREY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>31357/ SW ULTRA H 7.5 (SC) GREY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31370/ WHITEMAGIC ELITE 7.5 GREY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>31370/ WHITEMAGIC ELITE 7.5 GREY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">31403/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">31403/ </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WM 360 BW PRO (540) H 7.5 GRAPHIT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>WM 360 BW PRO (540) H 7.5 GRAPHIT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>31465/ WM CLASSIC 6.5 GENEX GREY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>31465/ WM CLASSIC 6.5 GENEX GREY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">31466/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">31466/ </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WM CLASSIC 6.5 GENX ROSEWOOD WINE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="9.0"/>
-      </rPr>
-      <t>WM CLASSIC 6.5 GENX ROSEWOOD WINE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">31468/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">31468/ </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WM PREMIER GENX 7.0 ROSEWOOD WINE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="9.0"/>
-      </rPr>
-      <t>WM PREMIER GENX 7.0 ROSEWOOD WINE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">31483/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">31483/ </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SW ULTRA H 7.5 SC ROSEWOOD WINE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>SW ULTRA H 7.5 SC ROSEWOOD WINE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">31513/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">31513/ </t>
-    </r>
-    <r>
-      <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t>WM STAINWASH PRO H 7.  GREY 10Y</t>
     </r>
+  </si>
+  <si>
+    <t>36750.1</t>
+  </si>
+  <si>
+    <t>31850.1</t>
+  </si>
+  <si>
+    <t>28500.1</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abcdefg</t>
+  </si>
+  <si>
+    <t>34335</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>teyr</t>
+  </si>
+  <si>
+    <t>7787</t>
+  </si>
+  <si>
+    <t>36750.2</t>
+  </si>
+  <si>
+    <t>abcdefgik</t>
+  </si>
+  <si>
+    <t>78784</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>15990.20</t>
+  </si>
+  <si>
+    <t>15390.0</t>
+  </si>
+  <si>
+    <t>14500.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <numFmts count="0"/>
+  <fonts count="16">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11.0"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11.0"/>
+      <u val="single"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri, Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1163,11 +1343,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="17">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -1183,6 +1369,7 @@
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1194,6 +1381,7 @@
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1211,48 +1399,61 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1264,6 +1465,7 @@
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -1281,6 +1483,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1314,6 +1517,7 @@
       </bottom>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1331,109 +1535,228 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="33">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="right"/>
+      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="15"/>
+    <cellStyle builtinId="4" name="Currency" xfId="16"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="17"/>
+    <cellStyle builtinId="3" name="Comma" xfId="18"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1548,21 +1871,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1579,7 +1902,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1631,19 +1954,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="A127" pane="topLeft" sqref="A127"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.634285714285713" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.25"/>
+    <col min="1" max="1" customWidth="true" width="45.285714285714285" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row ht="15.75" r="1" spans="1:4" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,1855 +1983,1771 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>36750.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>31850.0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>28500.0</v>
-      </c>
-    </row>
-    <row r="3">
+    <row r="2" spans="1:4">
+      <c r="A2" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="29">
+        <v>32700</v>
+      </c>
+      <c r="C2" s="29">
+        <v>25850</v>
+      </c>
+      <c r="D2" s="30">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5">
-        <v>36050.0</v>
+        <v>27150</v>
       </c>
       <c r="C3" s="5">
-        <v>31300.0</v>
+        <v>23250</v>
       </c>
       <c r="D3" s="6">
-        <v>28500.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
-        <v>39400.0</v>
-      </c>
-      <c r="C4" s="5">
-        <v>34150.0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>31000.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>27150</v>
+      </c>
+      <c r="C4" s="8">
+        <v>23250</v>
+      </c>
+      <c r="D4" s="9">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <v>32700.0</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="10">
+        <v>28150</v>
       </c>
       <c r="C5" s="5">
-        <v>25850.0</v>
+        <v>24550</v>
       </c>
       <c r="D5" s="6">
-        <v>25000.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
-        <v>32700.0</v>
+        <v>21000</v>
       </c>
       <c r="C6" s="5">
-        <v>25850.0</v>
+        <v>18000</v>
       </c>
       <c r="D6" s="6">
-        <v>25000.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>27150.0</v>
+        <v>21000</v>
       </c>
       <c r="C7" s="5">
-        <v>23250.0</v>
+        <v>18000</v>
       </c>
       <c r="D7" s="6">
-        <v>22000.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8">
-        <v>27150.0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>23250.0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>22000.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>22000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>19000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10">
-        <v>28150.0</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
+        <v>22000</v>
       </c>
       <c r="C9" s="5">
-        <v>24550.0</v>
+        <v>19000</v>
       </c>
       <c r="D9" s="6">
-        <v>23000.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5">
-        <v>21000.0</v>
+        <v>23350</v>
       </c>
       <c r="C10" s="5">
-        <v>18000.0</v>
+        <v>19850</v>
       </c>
       <c r="D10" s="6">
-        <v>16800.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
-        <v>21000.0</v>
+        <v>23350</v>
       </c>
       <c r="C11" s="5">
-        <v>18000.0</v>
+        <v>19850</v>
       </c>
       <c r="D11" s="6">
-        <v>16800.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5">
-        <v>22000.0</v>
+        <v>24550</v>
       </c>
       <c r="C12" s="5">
-        <v>19000.0</v>
+        <v>20850</v>
       </c>
       <c r="D12" s="6">
-        <v>17800.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5">
-        <v>22000.0</v>
+        <v>19700</v>
       </c>
       <c r="C13" s="5">
-        <v>19000.0</v>
+        <v>15900</v>
       </c>
       <c r="D13" s="6">
-        <v>17800.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5">
-        <v>23350.0</v>
+        <v>19700</v>
       </c>
       <c r="C14" s="5">
-        <v>19850.0</v>
+        <v>15900</v>
       </c>
       <c r="D14" s="6">
-        <v>18000.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5">
-        <v>23350.0</v>
+        <v>20700</v>
       </c>
       <c r="C15" s="5">
-        <v>19850.0</v>
+        <v>16900</v>
       </c>
       <c r="D15" s="6">
-        <v>18000.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
-        <v>24550.0</v>
+        <v>20700</v>
       </c>
       <c r="C16" s="5">
-        <v>20850.0</v>
+        <v>16900</v>
       </c>
       <c r="D16" s="6">
-        <v>19000.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5">
-        <v>19700.0</v>
+        <v>18050</v>
       </c>
       <c r="C17" s="5">
-        <v>15900.0</v>
+        <v>14900</v>
       </c>
       <c r="D17" s="6">
-        <v>14800.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5">
-        <v>19700.0</v>
+        <v>18050</v>
       </c>
       <c r="C18" s="5">
-        <v>15900.0</v>
+        <v>14900</v>
       </c>
       <c r="D18" s="6">
-        <v>14800.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19" s="5">
-        <v>20700.0</v>
+        <v>17500</v>
       </c>
       <c r="C19" s="5">
-        <v>16900.0</v>
+        <v>14600</v>
       </c>
       <c r="D19" s="6">
-        <v>15800.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5">
-        <v>20700.0</v>
+        <v>17500</v>
       </c>
       <c r="C20" s="5">
-        <v>16900.0</v>
+        <v>14600</v>
       </c>
       <c r="D20" s="6">
-        <v>15800.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21" s="5">
-        <v>18050.0</v>
+        <v>17500</v>
       </c>
       <c r="C21" s="5">
-        <v>14900.0</v>
+        <v>14600</v>
       </c>
       <c r="D21" s="6">
-        <v>14000.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5">
-        <v>18050.0</v>
+        <v>24500</v>
       </c>
       <c r="C22" s="5">
-        <v>14900.0</v>
+        <v>17500</v>
       </c>
       <c r="D22" s="6">
-        <v>14000.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23" s="5">
-        <v>17500.0</v>
+        <v>25150</v>
       </c>
       <c r="C23" s="5">
-        <v>14600.0</v>
+        <v>18500</v>
       </c>
       <c r="D23" s="6">
-        <v>13500.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5">
-        <v>17500.0</v>
+        <v>19500</v>
       </c>
       <c r="C24" s="5">
-        <v>14600.0</v>
+        <v>17500</v>
       </c>
       <c r="D24" s="6">
-        <v>13500.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25" s="5">
-        <v>17500.0</v>
+        <v>19500</v>
       </c>
       <c r="C25" s="5">
-        <v>14600.0</v>
+        <v>17500</v>
       </c>
       <c r="D25" s="6">
-        <v>13500.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26" s="5">
-        <v>24500.0</v>
+        <v>20650</v>
       </c>
       <c r="C26" s="5">
-        <v>17500.0</v>
+        <v>18500</v>
       </c>
       <c r="D26" s="6">
-        <v>15800.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" thickBot="1">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27" s="5">
-        <v>25150.0</v>
+        <v>18700</v>
       </c>
       <c r="C27" s="5">
-        <v>18500.0</v>
+        <v>15000</v>
       </c>
       <c r="D27" s="6">
-        <v>16800.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="5">
-        <v>19500.0</v>
-      </c>
-      <c r="C28" s="5">
-        <v>17500.0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>15800.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
-        <v>31</v>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B29" s="5">
-        <v>19500.0</v>
+        <v>15990</v>
       </c>
       <c r="C29" s="5">
-        <v>17500.0</v>
+        <v>14290</v>
       </c>
       <c r="D29" s="6">
-        <v>15800.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>32</v>
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="B30" s="5">
-        <v>20650.0</v>
+        <v>17990</v>
       </c>
       <c r="C30" s="5">
-        <v>18500.0</v>
+        <v>17190</v>
       </c>
       <c r="D30" s="6">
-        <v>16700.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>33</v>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="B31" s="5">
-        <v>18700.0</v>
+        <v>19990</v>
       </c>
       <c r="C31" s="5">
-        <v>15000.0</v>
+        <v>17990</v>
       </c>
       <c r="D31" s="6">
-        <v>14000.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="12">
-        <v>15990.0</v>
-      </c>
-      <c r="C32" s="12">
-        <v>15390.0</v>
-      </c>
-      <c r="D32" s="13">
-        <v>14500.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="5">
+        <v>16990</v>
+      </c>
+      <c r="C32" s="5">
+        <v>16590</v>
+      </c>
+      <c r="D32" s="6">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33" s="5">
-        <v>15990.0</v>
+        <v>16990</v>
       </c>
       <c r="C33" s="5">
-        <v>14290.0</v>
+        <v>16590</v>
       </c>
       <c r="D33" s="6">
-        <v>13800.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" s="5">
-        <v>17990.0</v>
+        <v>18990</v>
       </c>
       <c r="C34" s="5">
-        <v>17190.0</v>
+        <v>17990</v>
       </c>
       <c r="D34" s="6">
-        <v>16500.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35" s="5">
-        <v>19990.0</v>
+        <v>18990</v>
       </c>
       <c r="C35" s="5">
-        <v>17990.0</v>
+        <v>17990</v>
       </c>
       <c r="D35" s="6">
-        <v>16500.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36" s="5">
-        <v>16990.0</v>
+        <v>17990</v>
       </c>
       <c r="C36" s="5">
-        <v>16590.0</v>
+        <v>17390</v>
       </c>
       <c r="D36" s="6">
-        <v>15500.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37" s="5">
-        <v>16990.0</v>
+        <v>17990</v>
       </c>
       <c r="C37" s="5">
-        <v>16590.0</v>
+        <v>17390</v>
       </c>
       <c r="D37" s="6">
-        <v>15500.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5">
-        <v>18990.0</v>
+        <v>19990</v>
       </c>
       <c r="C38" s="5">
-        <v>17990.0</v>
+        <v>17990</v>
       </c>
       <c r="D38" s="6">
-        <v>16600.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39" s="5">
-        <v>18990.0</v>
+        <v>20990</v>
       </c>
       <c r="C39" s="5">
-        <v>17990.0</v>
+        <v>20590</v>
       </c>
       <c r="D39" s="6">
-        <v>16600.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40" s="5">
-        <v>17990.0</v>
+        <v>20990</v>
       </c>
       <c r="C40" s="5">
-        <v>17390.0</v>
+        <v>20590</v>
       </c>
       <c r="D40" s="6">
-        <v>16500.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41" s="5">
-        <v>17990.0</v>
+        <v>20990</v>
       </c>
       <c r="C41" s="5">
-        <v>17390.0</v>
+        <v>19590</v>
       </c>
       <c r="D41" s="6">
-        <v>16500.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42" s="5">
-        <v>19990.0</v>
+        <v>21990</v>
       </c>
       <c r="C42" s="5">
-        <v>17990.0</v>
+        <v>21590</v>
       </c>
       <c r="D42" s="6">
-        <v>17500.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43" s="5">
-        <v>20990.0</v>
+        <v>21990</v>
       </c>
       <c r="C43" s="5">
-        <v>20590.0</v>
+        <v>21590</v>
       </c>
       <c r="D43" s="6">
-        <v>19000.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44" s="5">
-        <v>20990.0</v>
+        <v>22990</v>
       </c>
       <c r="C44" s="5">
-        <v>20590.0</v>
+        <v>20990</v>
       </c>
       <c r="D44" s="6">
-        <v>19000.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45" s="5">
-        <v>20990.0</v>
+        <v>22990</v>
       </c>
       <c r="C45" s="5">
-        <v>19590.0</v>
+        <v>20990</v>
       </c>
       <c r="D45" s="6">
-        <v>17500.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46" s="5">
-        <v>21990.0</v>
+        <v>22990</v>
       </c>
       <c r="C46" s="5">
-        <v>21590.0</v>
+        <v>20990</v>
       </c>
       <c r="D46" s="6">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47" s="5">
-        <v>21990.0</v>
+        <v>23990</v>
       </c>
       <c r="C47" s="5">
-        <v>21590.0</v>
+        <v>21990</v>
       </c>
       <c r="D47" s="6">
-        <v>20000.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48" s="5">
-        <v>22990.0</v>
+        <v>23990</v>
       </c>
       <c r="C48" s="5">
-        <v>20990.0</v>
+        <v>21990</v>
       </c>
       <c r="D48" s="6">
-        <v>19500.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49" s="5">
-        <v>22990.0</v>
+        <v>21990</v>
       </c>
       <c r="C49" s="5">
-        <v>20990.0</v>
+        <v>20590</v>
       </c>
       <c r="D49" s="6">
-        <v>18800.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50" s="5">
-        <v>22990.0</v>
+        <v>23990</v>
       </c>
       <c r="C50" s="5">
-        <v>20990.0</v>
+        <v>22890</v>
       </c>
       <c r="D50" s="6">
-        <v>18800.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>21300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51" s="5">
-        <v>23990.0</v>
+        <v>24990</v>
       </c>
       <c r="C51" s="5">
-        <v>21990.0</v>
+        <v>22590</v>
       </c>
       <c r="D51" s="6">
-        <v>19800.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52" s="5">
-        <v>23990.0</v>
+        <v>24990</v>
       </c>
       <c r="C52" s="5">
-        <v>21990.0</v>
+        <v>22590</v>
       </c>
       <c r="D52" s="6">
-        <v>19800.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53" s="5">
-        <v>21990.0</v>
+        <v>25990</v>
       </c>
       <c r="C53" s="5">
-        <v>20590.0</v>
+        <v>23790</v>
       </c>
       <c r="D53" s="6">
-        <v>19200.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54" s="5">
-        <v>23990.0</v>
+        <v>25990</v>
       </c>
       <c r="C54" s="5">
-        <v>22890.0</v>
+        <v>23790</v>
       </c>
       <c r="D54" s="6">
-        <v>21300.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55" s="5">
-        <v>24990.0</v>
+        <v>31990</v>
       </c>
       <c r="C55" s="5">
-        <v>22590.0</v>
+        <v>29190</v>
       </c>
       <c r="D55" s="6">
-        <v>22000.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56" s="5">
-        <v>24990.0</v>
+        <v>31990</v>
       </c>
       <c r="C56" s="5">
-        <v>22590.0</v>
+        <v>29190</v>
       </c>
       <c r="D56" s="6">
-        <v>22000.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57" s="5">
-        <v>25990.0</v>
+        <v>28990</v>
       </c>
       <c r="C57" s="5">
-        <v>23790.0</v>
+        <v>26990</v>
       </c>
       <c r="D57" s="6">
-        <v>22500.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58" s="5">
-        <v>25990.0</v>
+        <v>28990</v>
       </c>
       <c r="C58" s="5">
-        <v>23790.0</v>
+        <v>26990</v>
       </c>
       <c r="D58" s="6">
-        <v>22500.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="14" t="s">
-        <v>61</v>
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" thickBot="1">
+      <c r="A59" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B59" s="5">
-        <v>31990.0</v>
+        <v>39990</v>
       </c>
       <c r="C59" s="5">
-        <v>29190.0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>28000.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="5">
-        <v>31990.0</v>
-      </c>
-      <c r="C60" s="5">
-        <v>29190.0</v>
-      </c>
-      <c r="D60" s="6">
-        <v>28000.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="14" t="s">
-        <v>63</v>
+        <v>33490</v>
+      </c>
+      <c r="D59" s="5">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="12">
+        <v>0</v>
+      </c>
+      <c r="C60" s="12">
+        <v>0</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="B61" s="5">
-        <v>28990.0</v>
+        <v>19499</v>
       </c>
       <c r="C61" s="5">
-        <v>26990.0</v>
+        <v>17299</v>
       </c>
       <c r="D61" s="6">
-        <v>26000.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="14" t="s">
-        <v>64</v>
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="B62" s="5">
-        <v>28990.0</v>
+        <v>17299</v>
       </c>
       <c r="C62" s="5">
-        <v>26990.0</v>
+        <v>15799</v>
       </c>
       <c r="D62" s="6">
-        <v>26000.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="15" t="s">
-        <v>65</v>
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="17" t="s">
+        <v>69</v>
       </c>
       <c r="B63" s="5">
-        <v>39990.0</v>
+        <v>17299</v>
       </c>
       <c r="C63" s="5">
-        <v>33490.0</v>
-      </c>
-      <c r="D63" s="5">
-        <v>31000.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="C64" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D64" s="13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>15799</v>
+      </c>
+      <c r="D63" s="6">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="5">
+        <v>19499</v>
+      </c>
+      <c r="C64" s="5">
+        <v>17299</v>
+      </c>
+      <c r="D64" s="6">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65" s="5">
-        <v>19499.0</v>
+        <v>23599</v>
       </c>
       <c r="C65" s="5">
-        <v>17299.0</v>
+        <v>21299</v>
       </c>
       <c r="D65" s="6">
-        <v>15500.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="5">
-        <v>17299.0</v>
-      </c>
-      <c r="C66" s="5">
-        <v>15799.0</v>
-      </c>
-      <c r="D66" s="6">
-        <v>14200.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>72</v>
+      </c>
+      <c r="B66" s="18">
+        <v>21199</v>
+      </c>
+      <c r="C66" s="18">
+        <v>18799</v>
+      </c>
+      <c r="D66" s="5">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67" s="5">
-        <v>17299.0</v>
+        <v>21199</v>
       </c>
       <c r="C67" s="5">
-        <v>15799.0</v>
+        <v>18799</v>
       </c>
       <c r="D67" s="6">
-        <v>14200.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68" s="5">
-        <v>19499.0</v>
+        <v>24999</v>
       </c>
       <c r="C68" s="5">
-        <v>17299.0</v>
+        <v>21449</v>
       </c>
       <c r="D68" s="6">
-        <v>15500.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69" s="5">
-        <v>23599.0</v>
+        <v>0</v>
       </c>
       <c r="C69" s="5">
-        <v>21299.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="6">
-        <v>18500.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="18">
-        <v>21199.0</v>
-      </c>
-      <c r="C70" s="18">
-        <v>18799.0</v>
-      </c>
-      <c r="D70" s="5">
-        <v>16200.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>76</v>
+      </c>
+      <c r="B70" s="5">
+        <v>27999</v>
+      </c>
+      <c r="C70" s="5">
+        <v>24749</v>
+      </c>
+      <c r="D70" s="6">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71" s="5">
-        <v>21199.0</v>
+        <v>24999</v>
       </c>
       <c r="C71" s="5">
-        <v>18799.0</v>
+        <v>21449</v>
       </c>
       <c r="D71" s="6">
-        <v>16200.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72" s="5">
-        <v>24999.0</v>
+        <v>24399</v>
       </c>
       <c r="C72" s="5">
-        <v>21449.0</v>
+        <v>21949</v>
       </c>
       <c r="D72" s="6">
-        <v>19000.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73" s="5">
-        <v>0.0</v>
+        <v>22299</v>
       </c>
       <c r="C73" s="5">
-        <v>0.0</v>
+        <v>19549</v>
       </c>
       <c r="D73" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74" s="5">
-        <v>27999.0</v>
+        <v>22599</v>
       </c>
       <c r="C74" s="5">
-        <v>24749.0</v>
+        <v>20149</v>
       </c>
       <c r="D74" s="6">
-        <v>21500.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75" s="5">
-        <v>24999.0</v>
+        <v>25999</v>
       </c>
       <c r="C75" s="5">
-        <v>21449.0</v>
+        <v>23449</v>
       </c>
       <c r="D75" s="6">
-        <v>19000.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76" s="5">
-        <v>24399.0</v>
+        <v>25999</v>
       </c>
       <c r="C76" s="5">
-        <v>21949.0</v>
+        <v>23449</v>
       </c>
       <c r="D76" s="6">
-        <v>19500.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77" s="5">
-        <v>22299.0</v>
+        <v>25999</v>
       </c>
       <c r="C77" s="5">
-        <v>19549.0</v>
+        <v>23449</v>
       </c>
       <c r="D77" s="6">
-        <v>17200.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78" s="5">
-        <v>22599.0</v>
+        <v>29099</v>
       </c>
       <c r="C78" s="5">
-        <v>20149.0</v>
+        <v>25449</v>
       </c>
       <c r="D78" s="6">
-        <v>17500.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79" s="5">
-        <v>25999.0</v>
+        <v>26099</v>
       </c>
       <c r="C79" s="5">
-        <v>23449.0</v>
+        <v>21949</v>
       </c>
       <c r="D79" s="6">
-        <v>20500.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80" s="5">
-        <v>25999.0</v>
+        <v>29099</v>
       </c>
       <c r="C80" s="5">
-        <v>23449.0</v>
+        <v>25449</v>
       </c>
       <c r="D80" s="6">
-        <v>20500.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81" s="5">
-        <v>25999.0</v>
+        <v>26099</v>
       </c>
       <c r="C81" s="5">
-        <v>23449.0</v>
+        <v>21949</v>
       </c>
       <c r="D81" s="6">
-        <v>20500.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82" s="5">
-        <v>29099.0</v>
+        <v>27899</v>
       </c>
       <c r="C82" s="5">
-        <v>25449.0</v>
+        <v>23899</v>
       </c>
       <c r="D82" s="6">
-        <v>22500.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83" s="5">
-        <v>26099.0</v>
+        <v>30999</v>
       </c>
       <c r="C83" s="5">
-        <v>21949.0</v>
+        <v>26799</v>
       </c>
       <c r="D83" s="6">
-        <v>19500.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84" s="5">
-        <v>29099.0</v>
+        <v>27899</v>
       </c>
       <c r="C84" s="5">
-        <v>25449.0</v>
+        <v>23899</v>
       </c>
       <c r="D84" s="6">
-        <v>22500.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85" s="5">
-        <v>26099.0</v>
+        <v>31799</v>
       </c>
       <c r="C85" s="5">
-        <v>21949.0</v>
+        <v>28949</v>
       </c>
       <c r="D85" s="6">
-        <v>19500.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86" s="5">
-        <v>27899.0</v>
+        <v>33599</v>
       </c>
       <c r="C86" s="5">
-        <v>23899.0</v>
+        <v>30449</v>
       </c>
       <c r="D86" s="6">
-        <v>21500.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87" s="5">
-        <v>30999.0</v>
+        <v>36199</v>
       </c>
       <c r="C87" s="5">
-        <v>26799.0</v>
+        <v>32799</v>
       </c>
       <c r="D87" s="6">
-        <v>23500.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88" s="5">
-        <v>27899.0</v>
+        <v>36199</v>
       </c>
       <c r="C88" s="5">
-        <v>23899.0</v>
+        <v>32799</v>
       </c>
       <c r="D88" s="6">
-        <v>21500.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="5">
-        <v>31799.0</v>
-      </c>
-      <c r="C89" s="5">
-        <v>28949.0</v>
-      </c>
-      <c r="D89" s="6">
-        <v>25500.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="5">
-        <v>33599.0</v>
-      </c>
-      <c r="C90" s="5">
-        <v>30449.0</v>
-      </c>
-      <c r="D90" s="6">
-        <v>26500.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="5">
-        <v>36199.0</v>
-      </c>
-      <c r="C91" s="5">
-        <v>32799.0</v>
-      </c>
-      <c r="D91" s="6">
-        <v>28500.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="5">
-        <v>36199.0</v>
-      </c>
-      <c r="C92" s="5">
-        <v>32799.0</v>
-      </c>
-      <c r="D92" s="6">
-        <v>28500.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="19" t="s">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" thickBot="1">
+      <c r="A89" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="18">
-        <v>36199.0</v>
-      </c>
-      <c r="C93" s="18">
-        <v>32799.0</v>
-      </c>
-      <c r="D93" s="18">
-        <v>28500.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="20" t="s">
+      <c r="B89" s="18">
+        <v>36199</v>
+      </c>
+      <c r="C89" s="18">
+        <v>32799</v>
+      </c>
+      <c r="D89" s="18">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="C94" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D94" s="21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
+      <c r="B90" s="21">
+        <v>0</v>
+      </c>
+      <c r="C90" s="21">
+        <v>0</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="23">
+        <v>18700</v>
+      </c>
+      <c r="C91" s="23">
+        <v>17500</v>
+      </c>
+      <c r="D91" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="23">
+        <v>0</v>
+      </c>
+      <c r="C92" s="23">
+        <v>0</v>
+      </c>
+      <c r="D92" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="23">
+        <v>0</v>
+      </c>
+      <c r="C93" s="23">
+        <v>0</v>
+      </c>
+      <c r="D93" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="23">
+        <v>21500</v>
+      </c>
+      <c r="C94" s="23">
+        <v>19500</v>
+      </c>
+      <c r="D94" s="23">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95" s="23">
-        <v>18700.0</v>
+        <v>22500</v>
       </c>
       <c r="C95" s="23">
-        <v>17500.0</v>
+        <v>20500</v>
       </c>
       <c r="D95" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96" s="23">
-        <v>0.0</v>
+        <v>13900</v>
       </c>
       <c r="C96" s="23">
-        <v>0.0</v>
+        <v>12950</v>
       </c>
       <c r="D96" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97" s="23">
-        <v>0.0</v>
+        <v>15200</v>
       </c>
       <c r="C97" s="23">
-        <v>0.0</v>
+        <v>13700</v>
       </c>
       <c r="D97" s="23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="22" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98" s="23">
-        <v>21500.0</v>
+        <v>15200</v>
       </c>
       <c r="C98" s="23">
-        <v>19500.0</v>
+        <v>13700</v>
       </c>
       <c r="D98" s="23">
-        <v>18500.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99" s="23">
-        <v>22500.0</v>
+        <v>16900</v>
       </c>
       <c r="C99" s="23">
-        <v>20500.0</v>
+        <v>14900</v>
       </c>
       <c r="D99" s="23">
-        <v>19500.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100" s="23">
-        <v>13900.0</v>
+        <v>18900</v>
       </c>
       <c r="C100" s="23">
-        <v>12950.0</v>
+        <v>16500</v>
       </c>
       <c r="D100" s="23">
-        <v>12600.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101" s="23">
-        <v>15200.0</v>
+        <v>18100</v>
       </c>
       <c r="C101" s="23">
-        <v>13700.0</v>
+        <v>15900</v>
       </c>
       <c r="D101" s="23">
-        <v>13200.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>15200</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102" s="23">
-        <v>15200.0</v>
+        <v>19200</v>
       </c>
       <c r="C102" s="23">
-        <v>13700.0</v>
+        <v>17900</v>
       </c>
       <c r="D102" s="23">
-        <v>13200.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="22" t="s">
-        <v>105</v>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" thickBot="1">
+      <c r="A103" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="B103" s="23">
-        <v>16900.0</v>
+        <v>19200</v>
       </c>
       <c r="C103" s="23">
-        <v>14900.0</v>
+        <v>17900</v>
       </c>
       <c r="D103" s="23">
-        <v>14200.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" s="23">
-        <v>18900.0</v>
-      </c>
-      <c r="C104" s="23">
-        <v>16500.0</v>
-      </c>
-      <c r="D104" s="23">
-        <v>15900.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" s="21">
+        <v>43990</v>
+      </c>
+      <c r="C104" s="21">
+        <v>38490</v>
+      </c>
+      <c r="D104" s="21">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B105" s="23">
-        <v>18100.0</v>
+        <v>15790</v>
       </c>
       <c r="C105" s="23">
-        <v>15900.0</v>
+        <v>13590</v>
       </c>
       <c r="D105" s="23">
-        <v>15200.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B106" s="23">
-        <v>19200.0</v>
+        <v>16090</v>
       </c>
       <c r="C106" s="23">
-        <v>17900.0</v>
+        <v>14100</v>
       </c>
       <c r="D106" s="23">
-        <v>17000.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="24" t="s">
-        <v>109</v>
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="22" t="s">
+        <v>113</v>
       </c>
       <c r="B107" s="23">
-        <v>19200.0</v>
+        <v>16590</v>
       </c>
       <c r="C107" s="23">
-        <v>17900.0</v>
+        <v>14590</v>
       </c>
       <c r="D107" s="23">
-        <v>17000.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="21">
-        <v>43990.0</v>
-      </c>
-      <c r="C108" s="21">
-        <v>38490.0</v>
-      </c>
-      <c r="D108" s="21">
-        <v>33500.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="23">
+        <v>17990</v>
+      </c>
+      <c r="C108" s="23">
+        <v>15790</v>
+      </c>
+      <c r="D108" s="23">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B109" s="23">
-        <v>15790.0</v>
+        <v>18990</v>
       </c>
       <c r="C109" s="23">
-        <v>13590.0</v>
+        <v>16890</v>
       </c>
       <c r="D109" s="23">
-        <v>12500.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="22" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B110" s="23">
-        <v>16090.0</v>
+        <v>28990</v>
       </c>
       <c r="C110" s="23">
-        <v>14100.0</v>
+        <v>23449</v>
       </c>
       <c r="D110" s="23">
-        <v>13000.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="22" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B111" s="23">
-        <v>16590.0</v>
+        <v>19990</v>
       </c>
       <c r="C111" s="23">
-        <v>14590.0</v>
+        <v>18449</v>
       </c>
       <c r="D111" s="23">
-        <v>13500.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B112" s="23">
-        <v>17990.0</v>
+        <v>30990</v>
       </c>
       <c r="C112" s="23">
-        <v>15790.0</v>
+        <v>27990</v>
       </c>
       <c r="D112" s="23">
-        <v>14500.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B113" s="23">
-        <v>18990.0</v>
+        <v>35990</v>
       </c>
       <c r="C113" s="23">
-        <v>16890.0</v>
+        <v>28449</v>
       </c>
       <c r="D113" s="23">
-        <v>15500.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" thickBot="1">
       <c r="A114" s="22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B114" s="23">
-        <v>28990.0</v>
+        <v>25990</v>
       </c>
       <c r="C114" s="23">
-        <v>23449.0</v>
+        <v>22290</v>
       </c>
       <c r="D114" s="23">
-        <v>20500.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" s="23">
-        <v>19990.0</v>
-      </c>
-      <c r="C115" s="23">
-        <v>18449.0</v>
-      </c>
-      <c r="D115" s="23">
-        <v>17200.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="22" t="s">
-        <v>118</v>
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="26">
+        <v>13200</v>
+      </c>
+      <c r="C115" s="26">
+        <v>11700</v>
+      </c>
+      <c r="D115" s="26">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="B116" s="23">
-        <v>30990.0</v>
+        <v>13750</v>
       </c>
       <c r="C116" s="23">
-        <v>27990.0</v>
+        <v>12500</v>
       </c>
       <c r="D116" s="23">
-        <v>24500.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="22" t="s">
-        <v>119</v>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="B117" s="23">
-        <v>35990.0</v>
+        <v>21500</v>
       </c>
       <c r="C117" s="23">
-        <v>28449.0</v>
+        <v>18900</v>
       </c>
       <c r="D117" s="23">
-        <v>25200.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="22" t="s">
-        <v>120</v>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="27" t="s">
+        <v>124</v>
       </c>
       <c r="B118" s="23">
-        <v>25990.0</v>
+        <v>14000</v>
       </c>
       <c r="C118" s="23">
-        <v>22290.0</v>
+        <v>12700</v>
       </c>
       <c r="D118" s="23">
-        <v>19500.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="26">
-        <v>13200.0</v>
-      </c>
-      <c r="C119" s="26">
-        <v>11700.0</v>
-      </c>
-      <c r="D119" s="26">
-        <v>11000.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" s="23">
+        <v>14700</v>
+      </c>
+      <c r="C119" s="23">
+        <v>13500</v>
+      </c>
+      <c r="D119" s="23">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B120" s="23">
-        <v>13750.0</v>
+        <v>18950</v>
       </c>
       <c r="C120" s="23">
-        <v>12500.0</v>
+        <v>16500</v>
       </c>
       <c r="D120" s="23">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B121" s="23">
-        <v>21500.0</v>
+        <v>24200</v>
       </c>
       <c r="C121" s="23">
-        <v>18900.0</v>
+        <v>22100</v>
       </c>
       <c r="D121" s="23">
-        <v>17000.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="27" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B122" s="23">
-        <v>14000.0</v>
+        <v>27350</v>
       </c>
       <c r="C122" s="23">
-        <v>12700.0</v>
+        <v>25900</v>
       </c>
       <c r="D122" s="23">
-        <v>12000.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B123" s="23">
-        <v>14700.0</v>
+        <v>25000</v>
       </c>
       <c r="C123" s="23">
-        <v>13500.0</v>
+        <v>23500</v>
       </c>
       <c r="D123" s="23">
-        <v>12800.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="27" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B124" s="23">
-        <v>18950.0</v>
+        <v>32500</v>
       </c>
       <c r="C124" s="23">
-        <v>16500.0</v>
+        <v>29200</v>
       </c>
       <c r="D124" s="23">
-        <v>14800.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="27" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B125" s="23">
-        <v>24200.0</v>
+        <v>20950</v>
       </c>
       <c r="C125" s="23">
-        <v>22100.0</v>
+        <v>19100</v>
       </c>
       <c r="D125" s="23">
-        <v>19000.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B126" s="23">
-        <v>27350.0</v>
+        <v>20950</v>
       </c>
       <c r="C126" s="23">
-        <v>25900.0</v>
+        <v>19100</v>
       </c>
       <c r="D126" s="23">
-        <v>23000.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B127" s="23">
-        <v>25000.0</v>
+        <v>22250</v>
       </c>
       <c r="C127" s="23">
-        <v>23500.0</v>
+        <v>20500</v>
       </c>
       <c r="D127" s="23">
-        <v>19500.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" s="23">
-        <v>32500.0</v>
-      </c>
-      <c r="C128" s="23">
-        <v>29200.0</v>
-      </c>
-      <c r="D128" s="23">
-        <v>26000.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" s="23">
-        <v>20950.0</v>
-      </c>
-      <c r="C129" s="23">
-        <v>19100.0</v>
-      </c>
-      <c r="D129" s="23">
-        <v>17000.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" s="23">
-        <v>20950.0</v>
-      </c>
-      <c r="C130" s="23">
-        <v>19100.0</v>
-      </c>
-      <c r="D130" s="23">
-        <v>17000.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" s="23">
-        <v>22250.0</v>
-      </c>
-      <c r="C131" s="23">
-        <v>20500.0</v>
-      </c>
-      <c r="D131" s="23">
-        <v>19000.0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" s="23">
-        <v>27250.0</v>
-      </c>
-      <c r="C132" s="23">
-        <v>25900.0</v>
-      </c>
-      <c r="D132" s="23">
-        <v>23000.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" s="23">
-        <v>28800.0</v>
-      </c>
-      <c r="C133" s="23">
-        <v>27200.0</v>
-      </c>
-      <c r="D133" s="23">
-        <v>22500.0</v>
+        <v>19000</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>